--- a/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A8F3AF16-419A-FB44-A881-664ABD8391E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A2E8AD-8127-47BC-88D3-26FFA16698E9}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{A8F3AF16-419A-FB44-A881-664ABD8391E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71437E6-F0F7-461B-9BFD-DD4830899482}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" r:id="rId1"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId2"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>Project ID</t>
   </si>
@@ -66,79 +70,229 @@
     <t>Donors</t>
   </si>
   <si>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>Sudan national child project - Africa Minigrids Program (AMP)</t>
   </si>
   <si>
     <t>PIMS+</t>
   </si>
   <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of households supported to access clean energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the project will install about 5MW solar ssyem in 3 towns </t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
     <t>Efficient Appliances UNEP Global PFD</t>
   </si>
   <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Total amount of electricity saved as a result of introducing more energy efficient air conditioning units and lamps/luminaires.</t>
+  </si>
+  <si>
+    <t>the project targted 1M households to be using more efficeint lghting and ACs</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Action Opportunities</t>
+  </si>
+  <si>
+    <t>Government Capacity-Building</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
     <t>Solar for Agriculture Development in Sudan</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00106169</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of farmers gain access to solar pumps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the project installed 350 solar pumps and a adiitional 100 to be installed by C0-fiannce through bank lending. </t>
+  </si>
+  <si>
+    <t>KOICA</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
     <t>Solar for Health Project</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00102733</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>number of health facilities supported by solar power systems</t>
+  </si>
+  <si>
+    <t>project is still uder formulation process</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Solar4Health</t>
+  </si>
+  <si>
+    <t>Sudan-Scaling Solar Applications for Agricultural Use (SSAAU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the project is within ISA global initiative to scale solar pump targetining installation of 272,579 solar pumps in 10 counteries. Starts with piloting25 to 50 pumps in each of the 10 selcted counteries </t>
+  </si>
+  <si>
+    <t>IBSA</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -147,7 +301,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -162,13 +319,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -177,22 +331,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -202,12 +353,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,8 +390,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,44 +417,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -294,50 +428,137 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,11 +864,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F28A3FB-BFAE-4586-8F4B-3E6A6FD3731C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="45.75">
+      <c r="A2" s="12">
+        <v>6321</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2637246</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>144002</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="91.5">
+      <c r="A3" s="12">
+        <v>5674</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1770000</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>5600000</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="57.75" customHeight="1">
+      <c r="A4" s="12">
+        <v>106169</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9129111</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="13">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13">
+        <v>450</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" ht="45.75">
+      <c r="A5" s="12">
+        <v>102733</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12">
+        <v>676621</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="91.5">
+      <c r="A6" s="12">
+        <v>1000518</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="13">
+        <v>600</v>
+      </c>
+      <c r="H6" s="13">
+        <v>650</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{8FE61C7E-0FBA-450A-BEFF-6B895B48FC37}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{539244DD-CCF6-42FB-AACE-764B60C8E4BE}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{59DF2B03-5ECB-4BD9-BABF-79FFF54D333C}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{CB174992-5E36-47DF-A3B6-597485F5AFF5}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{923E2F16-DA59-452F-9F03-9B1C13E7A8B2}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{576E506F-8D3C-4704-B25B-0A4CA3A3BF06}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{EF62BA4B-1836-4F49-98E8-A1468AE427C4}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{762D316F-97E1-465E-B8C6-2F8D8E61EDCD}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{51CDE0D0-A75C-49EB-BE86-229112CC1E53}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{B607759F-2EA1-4F07-9079-2AD9CEAFBB12}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{69B10A48-D089-4C89-912A-7C604E0B8414}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9972FBD2-9D05-4A19-9867-03F3D24727BC}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11312548-F840-44B5-91A4-0056FAC09407}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -657,123 +1337,250 @@
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="12">
         <v>6321</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12">
         <v>2637246</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
         <v>144002</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="12">
         <v>5674</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12">
         <v>1770000</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
         <v>5600000</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="12">
         <v>106169</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12">
         <v>9129111</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="12">
         <v>102733</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12">
         <v>676621</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{04216168-7347-48CA-A9D8-2ED89CFE6FF2}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5" xr:uid="{4C03BF25-D4E1-4CFF-8048-5E84ACB3C8EE}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5" xr:uid="{593D5DE0-DF09-402E-B25A-306EF4396661}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{229A8C61-F7E1-4270-8C69-2BA94390DB27}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{84CEA8B6-D197-474D-97B1-3BA01995490B}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{2399B02F-46C0-4A16-B94F-2406439E5D16}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{4645D383-A636-4F9B-B651-9D3D4244D97F}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{A3AD03D3-BBC0-4E49-BB95-3571E5BC501C}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{821486B7-5ABB-4EAD-A8F5-9FB9BA0DBCDE}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{73E640E6-9155-7947-9F51-39DBF2319918}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{43C2C38E-50F9-7E4F-A3BA-7E13BDA3D4D2}"/>
@@ -781,12 +1588,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3 E6:E7</xm:sqref>
+          <xm:sqref>E6:E7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{280CC0D3-EA66-4941-999A-FF223D21ADBD}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -794,182 +1607,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B21" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
+      <c r="B22" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -981,6 +1808,13 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Nouralla Ahmed</DisplayName>
+        <AccountId>1298</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
   </documentManagement>
 </p:properties>
 </file>
@@ -995,8 +1829,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1020,6 +1854,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1095,6 +1930,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -1246,5 +2086,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EF8350-79CD-4EEB-92A6-559D7FD2916D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0E1962-29C8-4B49-8363-78D653BC4069}"/>
 </file>
--- a/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{A8F3AF16-419A-FB44-A881-664ABD8391E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71437E6-F0F7-461B-9BFD-DD4830899482}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E3999-9436-3545-AB82-E24C5EC6329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="24660" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -347,13 +347,16 @@
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
+  </si>
+  <si>
+    <t>1000000 HH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +368,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,12 +399,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -867,33 +873,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F28A3FB-BFAE-4586-8F4B-3E6A6FD3731C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -958,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45.75">
+    <row r="2" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>6321</v>
       </c>
@@ -1021,7 +1027,7 @@
       </c>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="91.5">
+    <row r="3" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>5674</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>1770000</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>36</v>
@@ -1043,8 +1049,8 @@
       <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
-        <v>5600000</v>
+      <c r="H3" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>37</v>
@@ -1084,7 +1090,7 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="57.75" customHeight="1">
+    <row r="4" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>106169</v>
       </c>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="45.75">
+    <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>102733</v>
       </c>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="91.5">
+    <row r="6" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>1000518</v>
       </c>
@@ -1330,25 +1336,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="81.6640625" customWidth="1"/>
+    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>6321</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="T2" s="7"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>5674</v>
       </c>
@@ -1485,7 +1491,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>106169</v>
       </c>
@@ -1518,7 +1524,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>102733</v>
       </c>
@@ -1615,12 +1621,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45.75">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.75">
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>69</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="91.5">
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>71</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45.75">
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>73</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45.75">
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>75</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45.75">
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>77</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30.75">
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>79</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30.75">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>81</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75">
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>83</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.75">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>87</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.75">
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>89</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30.75">
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>91</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.75">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>93</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>95</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="76.5">
+    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>97</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>99</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45.75">
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30.75">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>44</v>
       </c>
@@ -1802,33 +1808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Nouralla Ahmed</DisplayName>
-        <AccountId>1298</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2077,14 +2056,67 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Nouralla Ahmed</DisplayName>
+        <AccountId>1298</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE280-AB55-431B-926B-78205BAD5BBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0E1962-29C8-4B49-8363-78D653BC4069}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40AD99BC-C99A-40CF-9547-57FA70D978AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40AD99BC-C99A-40CF-9547-57FA70D978AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0E1962-29C8-4B49-8363-78D653BC4069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE280-AB55-431B-926B-78205BAD5BBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E3999-9436-3545-AB82-E24C5EC6329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{A8F3AF16-419A-FB44-A881-664ABD8391E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62CEC554-D49D-4A21-A40B-5FAAD5BC6611}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="24660" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -145,99 +145,105 @@
     <t>Efficient Appliances UNEP Global PFD</t>
   </si>
   <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t>Total amount of electricity saved as a result of introducing more energy efficient air conditioning units and lamps/luminaires.</t>
+  </si>
+  <si>
+    <t>1000000 HH</t>
+  </si>
+  <si>
+    <t>the project targted 1M households to be using more efficeint lghting and ACs</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Action Opportunities</t>
+  </si>
+  <si>
+    <t>Government Capacity-Building</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Solar for Agriculture Development in Sudan</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00106169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of farmers gain access to solar pumps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the project installed 350 solar pumps and a adiitional 100 to be installed by C0-fiannce through bank lending. </t>
+  </si>
+  <si>
+    <t>KOICA</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>Solar for Health Project</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00102733</t>
+  </si>
+  <si>
+    <t>number of health facilities supported by solar power systems</t>
+  </si>
+  <si>
+    <t>project is still uder formulation process</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Solar4Health</t>
+  </si>
+  <si>
+    <t>Sudan-Scaling Solar Applications for Agricultural Use (SSAAU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the project is within ISA global initiative to scale solar pump targetining installation of 272,579 solar pumps in 10 counteries. Starts with piloting25 to 50 pumps in each of the 10 selcted counteries </t>
+  </si>
+  <si>
+    <t>IBSA</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Total amount of electricity saved as a result of introducing more energy efficient air conditioning units and lamps/luminaires.</t>
-  </si>
-  <si>
-    <t>the project targted 1M households to be using more efficeint lghting and ACs</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Action Opportunities</t>
-  </si>
-  <si>
-    <t>Government Capacity-Building</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Solar for Agriculture Development in Sudan</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00106169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of farmers gain access to solar pumps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the project installed 350 solar pumps and a adiitional 100 to be installed by C0-fiannce through bank lending. </t>
-  </si>
-  <si>
-    <t>KOICA</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>National Strategy</t>
-  </si>
-  <si>
-    <t>Solar for Health Project</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00102733</t>
-  </si>
-  <si>
-    <t>number of health facilities supported by solar power systems</t>
-  </si>
-  <si>
-    <t>project is still uder formulation process</t>
-  </si>
-  <si>
-    <t>GCF</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Solar4Health</t>
-  </si>
-  <si>
-    <t>Sudan-Scaling Solar Applications for Agricultural Use (SSAAU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the project is within ISA global initiative to scale solar pump targetining installation of 272,579 solar pumps in 10 counteries. Starts with piloting25 to 50 pumps in each of the 10 selcted counteries </t>
-  </si>
-  <si>
-    <t>IBSA</t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
-  </si>
-  <si>
     <t>Number of MW installed capacity</t>
   </si>
   <si>
@@ -283,9 +289,6 @@
     <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
   </si>
   <si>
-    <t>Energy Efficiency Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
   </si>
   <si>
@@ -347,16 +350,13 @@
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
-  </si>
-  <si>
-    <t>1000000 HH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +368,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,7 +398,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,10 +411,9 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +424,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE497"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -557,6 +566,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -873,33 +887,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F28A3FB-BFAE-4586-8F4B-3E6A6FD3731C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625"/>
-    <col min="5" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625"/>
-    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -964,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="45.75">
       <c r="A2" s="12">
         <v>6321</v>
       </c>
@@ -1027,7 +1041,7 @@
       </c>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="91.5">
       <c r="A3" s="12">
         <v>5674</v>
       </c>
@@ -1040,20 +1054,20 @@
       <c r="D3" s="12">
         <v>1770000</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>103</v>
+      <c r="H3" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>26</v>
@@ -1065,40 +1079,40 @@
         <v>27</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="57.75" customHeight="1">
       <c r="A4" s="12">
         <v>106169</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12">
         <v>9129111</v>
@@ -1107,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="13">
         <v>28</v>
@@ -1116,16 +1130,16 @@
         <v>450</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" s="23">
         <v>0.35</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>28</v>
@@ -1137,13 +1151,13 @@
         <v>23</v>
       </c>
       <c r="P4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>32</v>
@@ -1153,15 +1167,15 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="45.75">
       <c r="A5" s="12">
         <v>102733</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="12">
         <v>676621</v>
@@ -1170,15 +1184,15 @@
         <v>23</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="22">
         <v>0.5</v>
@@ -1187,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>29</v>
@@ -1196,28 +1210,28 @@
         <v>23</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="91.5">
       <c r="A6" s="12">
         <v>1000518</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="18">
         <v>200000</v>
@@ -1226,7 +1240,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="13">
         <v>600</v>
@@ -1235,40 +1249,40 @@
         <v>650</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="24">
         <v>0.35</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U6" s="9"/>
     </row>
@@ -1314,7 +1328,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>E2 E4:E5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11312548-F840-44B5-91A4-0056FAC09407}">
           <x14:formula1>
@@ -1336,25 +1350,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="12">
         <v>6321</v>
       </c>
@@ -1456,7 +1470,7 @@
       <c r="T2" s="7"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="12">
         <v>5674</v>
       </c>
@@ -1491,15 +1505,15 @@
       <c r="T3" s="7"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="12">
         <v>106169</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12">
         <v>9129111</v>
@@ -1512,7 +1526,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
@@ -1524,15 +1538,15 @@
       <c r="T4" s="7"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="12">
         <v>102733</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="12">
         <v>676621</v>
@@ -1545,7 +1559,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="8"/>
@@ -1621,12 +1635,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1634,172 +1648,172 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="29" t="s">
+        <v>84</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="27" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="27" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="27" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="27" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="27" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="27" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="27" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="B20" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="B21" s="31" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1822,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Nouralla Ahmed</DisplayName>
+        <AccountId>1298</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1834,6 +1875,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1913,6 +1955,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2056,67 +2103,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Nouralla Ahmed</DisplayName>
-        <AccountId>1298</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0E1962-29C8-4B49-8363-78D653BC4069}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE280-AB55-431B-926B-78205BAD5BBE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40AD99BC-C99A-40CF-9547-57FA70D978AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40AD99BC-C99A-40CF-9547-57FA70D978AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE280-AB55-431B-926B-78205BAD5BBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37AF7A2E-0D65-421E-BC4B-7F409114D4C3}"/>
 </file>
--- a/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sudan - Energy Projects.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F28A3FB-BFAE-4586-8F4B-3E6A6FD3731C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
